--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/利息支出.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/利息支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>29.16702</v>
-      </c>
-      <c r="C2" t="n">
-        <v>83.84180000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.93346</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.008330000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.32812</v>
-      </c>
-      <c r="G2" t="n">
-        <v>96.27087</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.84487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23.40792</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.20527</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1206.2017</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.97999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.78534</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>42.20055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.98184</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7.3246</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.83515</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.73331</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.1347</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.14188</v>
-      </c>
-      <c r="V2" t="n">
-        <v>18.84417</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.73334</v>
-      </c>
-      <c r="X2" t="n">
-        <v>33.69256</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>258.12129</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>43.835</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29.52237</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.82546</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>58.56915</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>40.52845</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>49.34509</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7.46594</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17.58396</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.49643</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>45.83883</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4.37123</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>10.06804</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29.50591</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>16.92453</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>115.29619</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.90988</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25.54192</v>
-      </c>
-      <c r="C3" t="n">
-        <v>71.57281</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.87081</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00209</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.22911</v>
-      </c>
-      <c r="G3" t="n">
-        <v>81.80139</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.88215</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23.3949</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.57448</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1138.15332</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.91825</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.58901</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.32378</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41.64847</v>
-      </c>
-      <c r="P3" t="n">
-        <v>35.17654</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.73369</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.24853</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.66584</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.91514</v>
-      </c>
-      <c r="U3" t="n">
-        <v>9.60674</v>
-      </c>
-      <c r="V3" t="n">
-        <v>30.33714</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.00184</v>
-      </c>
-      <c r="X3" t="n">
-        <v>40.51588</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>321.6213</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>38.05608</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>26.98024</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.4209</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>52.83321</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>27.96174</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>37.16297</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>8.317909999999999</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15.46622</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.55853</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>36.39243</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>5.75572</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>8.394360000000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21.07354</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>15.51947</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>88.0616</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.30264</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>23.35367</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67.56755</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.82497</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00023</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.90197</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86.45635</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.34095</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23.6492</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.16155</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1141.82849</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.36238</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.65891</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.1557</v>
-      </c>
-      <c r="O4" t="n">
-        <v>35.84428</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37.45136</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.03015</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.72984</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.2989</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.09158</v>
-      </c>
-      <c r="U4" t="n">
-        <v>9.37861</v>
-      </c>
-      <c r="V4" t="n">
-        <v>27.9265</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.40689</v>
-      </c>
-      <c r="X4" t="n">
-        <v>51.05205</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>340.03188</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>36.74481</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>25.12411</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.12209</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>48.59464</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>22.5234</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>32.29725</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.13968</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>18.79188</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.14099</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>33.83787</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.35281</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.75488</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>18.53372</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>14.77034</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>91.04648</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.97578</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
